--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.833119</v>
+        <v>2.971347333333334</v>
       </c>
       <c r="H2">
-        <v>113.499357</v>
+        <v>8.914042</v>
       </c>
       <c r="I2">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="J2">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>4428.160880281996</v>
+        <v>229.0597495844378</v>
       </c>
       <c r="R2">
-        <v>39853.44792253797</v>
+        <v>2061.53774625994</v>
       </c>
       <c r="S2">
-        <v>0.08993899276912688</v>
+        <v>0.007026251116106035</v>
       </c>
       <c r="T2">
-        <v>0.08993899276912688</v>
+        <v>0.007026251116106034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.833119</v>
+        <v>2.971347333333334</v>
       </c>
       <c r="H3">
-        <v>113.499357</v>
+        <v>8.914042</v>
       </c>
       <c r="I3">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="J3">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>3843.089640456442</v>
+        <v>301.8295730503005</v>
       </c>
       <c r="R3">
-        <v>34587.80676410798</v>
+        <v>2716.466157452704</v>
       </c>
       <c r="S3">
-        <v>0.07805579352891689</v>
+        <v>0.009258415668252189</v>
       </c>
       <c r="T3">
-        <v>0.07805579352891688</v>
+        <v>0.009258415668252187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.833119</v>
+        <v>2.971347333333334</v>
       </c>
       <c r="H4">
-        <v>113.499357</v>
+        <v>8.914042</v>
       </c>
       <c r="I4">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="J4">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>5373.31642203593</v>
+        <v>422.0109217474952</v>
       </c>
       <c r="R4">
-        <v>48359.84779832338</v>
+        <v>3798.098295727456</v>
       </c>
       <c r="S4">
-        <v>0.1091357518150841</v>
+        <v>0.01294489632210235</v>
       </c>
       <c r="T4">
-        <v>0.1091357518150841</v>
+        <v>0.01294489632210235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.650094</v>
       </c>
       <c r="I5">
-        <v>0.4679506129682439</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="J5">
-        <v>0.467950612968244</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>7477.200500379641</v>
+        <v>4924.738131082842</v>
       </c>
       <c r="R5">
-        <v>67294.80450341677</v>
+        <v>44322.64317974559</v>
       </c>
       <c r="S5">
-        <v>0.1518670843084027</v>
+        <v>0.1510629731012403</v>
       </c>
       <c r="T5">
-        <v>0.1518670843084027</v>
+        <v>0.1510629731012403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.650094</v>
       </c>
       <c r="I6">
-        <v>0.4679506129682439</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="J6">
-        <v>0.467950612968244</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>6489.274567818949</v>
@@ -818,10 +818,10 @@
         <v>58403.47111037053</v>
       </c>
       <c r="S6">
-        <v>0.1318016292115339</v>
+        <v>0.1990540579808357</v>
       </c>
       <c r="T6">
-        <v>0.1318016292115339</v>
+        <v>0.1990540579808357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.650094</v>
       </c>
       <c r="I7">
-        <v>0.4679506129682439</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="J7">
-        <v>0.467950612968244</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>9073.149175417178</v>
@@ -880,10 +880,10 @@
         <v>81658.3425787546</v>
       </c>
       <c r="S7">
-        <v>0.1842818994483074</v>
+        <v>0.2783126439107164</v>
       </c>
       <c r="T7">
-        <v>0.1842818994483074</v>
+        <v>0.2783126439107164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>104.402516</v>
       </c>
       <c r="I8">
-        <v>0.2549188489186281</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="J8">
-        <v>0.2549188489186282</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>4073.248953773502</v>
+        <v>2682.780064413569</v>
       </c>
       <c r="R8">
-        <v>36659.24058396152</v>
+        <v>24145.02057972212</v>
       </c>
       <c r="S8">
-        <v>0.08273048746525193</v>
+        <v>0.08229244315533606</v>
       </c>
       <c r="T8">
-        <v>0.08273048746525194</v>
+        <v>0.08229244315533606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>104.402516</v>
       </c>
       <c r="I9">
-        <v>0.2549188489186281</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="J9">
-        <v>0.2549188489186282</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>3535.07049099131</v>
@@ -1004,10 +1004,10 @@
         <v>31815.63441892179</v>
       </c>
       <c r="S9">
-        <v>0.07179971277542517</v>
+        <v>0.1084358689289718</v>
       </c>
       <c r="T9">
-        <v>0.07179971277542517</v>
+        <v>0.1084358689289718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>104.402516</v>
       </c>
       <c r="I10">
-        <v>0.2549188489186281</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="J10">
-        <v>0.2549188489186282</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>4942.651381933987</v>
@@ -1066,10 +1066,10 @@
         <v>44483.86243740589</v>
       </c>
       <c r="S10">
-        <v>0.1003886486779511</v>
+        <v>0.1516124498164392</v>
       </c>
       <c r="T10">
-        <v>0.1003886486779511</v>
+        <v>0.1516124498164392</v>
       </c>
     </row>
   </sheetData>
